--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-VerpflegskostenBeitragsbefreiung-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
